--- a/Test Case/Prapancha/Test Case- EMR.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Prapancha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mediware\CentralRepository-Mediware\Test Case\Prapancha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54AF75-FE1C-47B4-A2F9-4F32CD53F21B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B03969-A4E0-42A5-945D-487AEF85D609}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F7DE9A8-95BF-4A66-80E1-54FECD1073D8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="627">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -782,15 +782,6 @@
     <t>To check whether user is able to close the popups.</t>
   </si>
   <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition: 
- Patient should be admitted status.
-Navigate to In- Patients tab &gt;Drug schedule status which navigates the user with a popup page.
-</t>
-  </si>
-  <si>
     <t>Try to close the popup displayed</t>
   </si>
   <si>
@@ -803,13 +794,6 @@
     <t>To check the Clear  functionality under Drug schedule popup</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition: 
- Patient should be admitted status.
-Navigate to In -Patients tab &gt;Drug schedule status which navigates the user with a popup page. Search for any keyword and 
-Click on the clear option and verify whether data gets cleared
-</t>
-  </si>
-  <si>
     <t>Data should be cleared</t>
   </si>
   <si>
@@ -819,10 +803,6 @@
     <t>To check the search functionality under Drug schedule popup</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition: 
- Patient should be admitted status.Navigate to In -Patients tab &gt;Drug schedule status which navigates the user with a popup page. </t>
-  </si>
-  <si>
     <t>Search for any patient with keyword like patientID , name or drug status.</t>
   </si>
   <si>
@@ -835,9 +815,6 @@
     <t>To check the search functionality in Inpatients menu</t>
   </si>
   <si>
-    <t>Precondition: Patient should be admitted status</t>
-  </si>
-  <si>
     <t>Search for any patient with keyword like patientID / name /doctor and date .</t>
   </si>
   <si>
@@ -848,9 +825,6 @@
   </si>
   <si>
     <t>To verify the Summary Information in the EMR In Patient page</t>
-  </si>
-  <si>
-    <t>Precondition : There must be some patients in the admitted,direct referral, transferred, discharged status</t>
   </si>
   <si>
     <t>The user must be navigated to the EMR &gt; In-patients tab</t>
@@ -891,10 +865,6 @@
     <t>To select the Nursing station from dropdown</t>
   </si>
   <si>
-    <t>Precondition: Patient should be admitted status
-Navigate to the EMR &gt; In-patients tab and try to select a nursing station from dropdown</t>
-  </si>
-  <si>
     <t>selected dropdown  value should display corresponding data</t>
   </si>
   <si>
@@ -904,9 +874,6 @@
     <t>To admit a patient</t>
   </si>
   <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out -Patient</t>
-  </si>
-  <si>
     <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.</t>
   </si>
   <si>
@@ -947,9 +914,6 @@
   </si>
   <si>
     <t>To verify the Out patient after gets admitted gets reflected in In-patient tab</t>
-  </si>
-  <si>
-    <t>Precondition: Patient status should be changed to admitted in  dashboard&gt;Billing icon&gt;In-patient &gt;Admission Requisition</t>
   </si>
   <si>
     <t>Navigate to Billing icon in dashboard and verify the patient still displays in admission requistion state</t>
@@ -1018,9 +982,6 @@
     <t>To verify General Entries</t>
   </si>
   <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient&gt;Double click on any patient&gt;Patient IP Consultation&gt;General Entries</t>
-  </si>
-  <si>
     <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;General Entries and verify the contents.</t>
   </si>
   <si>
@@ -1040,12 +1001,6 @@
     <t>To verify  New Progress Notes can be added</t>
   </si>
   <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient&gt;Double click on any patient&gt;Patient IP Consultation&gt;Progress Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Precondition : There must be some patients in the admitted,direct referral, transferred, discharged status                             </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -1063,10 +1018,6 @@
     <t>To  Edit Progress Notes under Patient IP consultation</t>
   </si>
   <si>
-    <t>Navigate till Progress Notes and try to edit  an already existing data
-Verify result</t>
-  </si>
-  <si>
     <t>Data should be edited</t>
   </si>
   <si>
@@ -1074,10 +1025,6 @@
   </si>
   <si>
     <t xml:space="preserve">To verify    File Attachments functionality </t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;  File attachment
-Click on the scanned files</t>
   </si>
   <si>
     <t xml:space="preserve">It should  display data on  clicking scanned files of :
@@ -1137,9 +1084,6 @@
     <t>To verify sub menu of Investigation Results</t>
   </si>
   <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the submenu.</t>
-  </si>
-  <si>
     <t>It should display:
 -Lab Results
 -Radiology Results</t>
@@ -1149,9 +1093,6 @@
   </si>
   <si>
     <t>To verify  submenu of General Request</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;General Request   and verify the sub menus.</t>
   </si>
   <si>
     <t>It should display:
@@ -1164,9 +1105,6 @@
   </si>
   <si>
     <t>To verify  Operation Notes &lt; Patient IP consultation</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Operation Notes  and verify the contents.</t>
   </si>
   <si>
     <t>Contents should be displayed correctly with 4 tabs which includes:
@@ -1180,10 +1118,6 @@
   </si>
   <si>
     <t>To verify contents and alignment  of  Surgery Team tab under Operation notes of Patient IP consultation</t>
-  </si>
-  <si>
-    <t>Precondition:Navigate till  Operation Notes 
-Click on Surgery Team tab and verify the contents</t>
   </si>
   <si>
     <t>Page should contain Textfields for :
@@ -1203,11 +1137,6 @@
     <t>Test case for Adding New of Surgery Team tab under Operation notes of Patient IP consultation</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition:Navigate till  Operation Notes 
-Click on Surgery Team tab 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on New Option and enter data in mandatory fields using Add button &amp; Date picker for date.
 </t>
   </si>
@@ -1227,10 +1156,6 @@
     <t>Test case for  preview of Surgery Team tab under Operation notes of Patient IP consultation</t>
   </si>
   <si>
-    <t>Precondition:Navigate till  Operation Notes 
-Click on Surgery Team tab and save a newly added Surgery Team</t>
-  </si>
-  <si>
     <t>Click on Preview option and verify it</t>
   </si>
   <si>
@@ -1286,10 +1211,6 @@
     <t>Test case for  save of Surgery Team tab under Operation notes of Patient IP consultation</t>
   </si>
   <si>
-    <t>Precondition: Add details in mandatory fields for New Surgery Team.
-Click on Save option</t>
-  </si>
-  <si>
     <t>Data should get saved with a popup message</t>
   </si>
   <si>
@@ -1299,10 +1220,6 @@
     <t>Test case for  delete of Surgery Team tab under Operation notes of Patient IP consultation</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till Preview page of Surgery Team tab under Operation notes of Patient IP consultation
-</t>
-  </si>
-  <si>
     <t>Try to delete an existing data</t>
   </si>
   <si>
@@ -1315,11 +1232,6 @@
     <t>Test case for  cancel of Surgery Team tab under Operation notes of Patient IP consultation</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till  Surgery Team  under Operation notes of Patient IP consultation
-Verify the functionality of cancel option while adding a new surgey Team.
-</t>
-  </si>
-  <si>
     <t>New surgery Team should get cancelled</t>
   </si>
   <si>
@@ -1327,11 +1239,6 @@
   </si>
   <si>
     <t>Test case for verify page contents  and alignment of  operative diagnosis  under Operation notes of Patient IP consultation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-Verify the contents of page
-</t>
   </si>
   <si>
     <t>Page should include:
@@ -1345,10 +1252,6 @@
     <t>Test case for New in Operative Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-</t>
-  </si>
-  <si>
     <t>Try to add New on cliking New option</t>
   </si>
   <si>
@@ -1370,10 +1273,6 @@
     <t>Test case for Edit  in Operative Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-</t>
-  </si>
-  <si>
     <t>Try to Edit a Newly created data  on clicking Edit option</t>
   </si>
   <si>
@@ -1389,10 +1288,6 @@
     <t>Test case for Save  in Operative Diagnosis</t>
   </si>
   <si>
-    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-After adding a new data try to save it.</t>
-  </si>
-  <si>
     <t>Data should be saved</t>
   </si>
   <si>
@@ -1408,10 +1303,6 @@
     <t>Testcase for Delete  in Operative Diagnosis</t>
   </si>
   <si>
-    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-try to delete data.</t>
-  </si>
-  <si>
     <t>Data should be deleted</t>
   </si>
   <si>
@@ -1421,20 +1312,12 @@
     <t>Testcase for Preview  in Operative Diagnosis</t>
   </si>
   <si>
-    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation</t>
-  </si>
-  <si>
     <t>MED_EMROP_TC_043</t>
   </si>
   <si>
     <t>Testcase for cancel  in Operative Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
-Try to add a new entry
-Click on cancel option and verify </t>
-  </si>
-  <si>
     <t>Process flow should get cancelled</t>
   </si>
   <si>
@@ -1444,12 +1327,6 @@
     <t>Testcase for print preview  in Operative Diagnosis</t>
   </si>
   <si>
-    <t>Check Print option in Preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on print option and verify result </t>
-  </si>
-  <si>
     <t>Data should be printed</t>
   </si>
   <si>
@@ -1459,12 +1336,6 @@
     <t>Testcase for close preview  in Operative Diagnosis</t>
   </si>
   <si>
-    <t>Check Close option in Preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on close option and verify result </t>
-  </si>
-  <si>
     <t>Preview page should be closed</t>
   </si>
   <si>
@@ -1474,10 +1345,6 @@
     <t>To verify  Manage Certificates</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Certificates 
-</t>
-  </si>
-  <si>
     <t>Certificates page  should be displayed correctly</t>
   </si>
   <si>
@@ -1509,9 +1376,6 @@
   </si>
   <si>
     <t>To verify  contents of Discharge summary</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Certificates  and verify the contents.</t>
   </si>
   <si>
     <t>It should display:
@@ -1529,12 +1393,6 @@
     <t>To verify Patient OP consultation photo upload</t>
   </si>
   <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
-  </si>
-  <si>
-    <t>Precondition: Patient should be in Being seen /Consulted status</t>
-  </si>
-  <si>
     <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on any patient  status (Being Seen/Consulted)under Todays waiting/Consulted out patients</t>
   </si>
   <si>
@@ -1551,9 +1409,6 @@
   </si>
   <si>
     <t>To verify patient OP consultation.</t>
-  </si>
-  <si>
-    <t>Precondition: Patient should be in Being seen/consulted status</t>
   </si>
   <si>
     <t>Verify contents of page.</t>
@@ -1581,10 +1436,6 @@
   </si>
   <si>
     <t>Testcase to verify contents of Doctor Notes In Patient OP consultation</t>
-  </si>
-  <si>
-    <t>Precondition: Patient should be in Being seen /Consulted status
-Verify the contents listed</t>
   </si>
   <si>
     <t>Page should be properly aligned</t>
@@ -1648,18 +1499,12 @@
     <t>To verify ER Examinations in Out-patients tab</t>
   </si>
   <si>
-    <t>Verify the contents listed</t>
-  </si>
-  <si>
     <t>MED_EMROP_TC_052</t>
   </si>
   <si>
     <t>To verify paginationof summary information in Out-patients tab</t>
   </si>
   <si>
-    <t>Precondition: Patient should be in Being seen status</t>
-  </si>
-  <si>
     <t>Patients under Being seen/Arrived/Consulted status is displayed</t>
   </si>
   <si>
@@ -1679,14 +1524,6 @@
   </si>
   <si>
     <t>Test case for verify page contents  and alignment of  Operative Findings under Operation notes of Patient IP consultation</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Patient IP Consultation&gt; Operation Notes 
-Click on Operative Findings tab and verify </t>
   </si>
   <si>
     <t xml:space="preserve">Page should contain text fields ,Dropdowns, checkbox with proper alignment.
@@ -1697,698 +1534,859 @@
   </si>
   <si>
     <t>Testcase for New   in Operative Findings</t>
+  </si>
+  <si>
+    <t>Operative Findings page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on 'New' option and enter mandatory fields</t>
+  </si>
+  <si>
+    <t>Mandatory fields should be highlighted</t>
+  </si>
+  <si>
+    <t>Click on save options and verify Notification message gets displayed</t>
+  </si>
+  <si>
+    <t>Data should be saved with a notification</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_055</t>
+  </si>
+  <si>
+    <t>Testcase for Delete   in Operative Findings</t>
+  </si>
+  <si>
+    <t>Operative Findings tab should be displayed</t>
+  </si>
+  <si>
+    <t>Existing data should get deleted</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_056</t>
+  </si>
+  <si>
+    <t>Testcase for Edit   in Operative Findings</t>
+  </si>
+  <si>
+    <t>Try to Edit an existing data</t>
+  </si>
+  <si>
+    <t>Data should be editable</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_057</t>
+  </si>
+  <si>
+    <t>Testcase for preview   in Operative Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should be displayed </t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_058</t>
+  </si>
+  <si>
+    <t>Testcase for cancel   in Operative Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to add a new entry
+Click on cancel option and verify </t>
+  </si>
+  <si>
+    <t>Action should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_059</t>
+  </si>
+  <si>
+    <t>Testcase for Print   in Operative Findings preview</t>
+  </si>
+  <si>
+    <t>Operative Findings tab should be displayed
+It should get printed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_060</t>
+  </si>
+  <si>
+    <t>Testcase for Close Preview   in Operative Findings</t>
+  </si>
+  <si>
+    <t>Operative Findings tab should be displayed
+It should be closed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_061</t>
+  </si>
+  <si>
+    <t>Test case for Remarks Functionality</t>
+  </si>
+  <si>
+    <t>Remarks option page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_062</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>New Data should be added</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_063</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Data should be Edited</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_064</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Data should be previewed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_065</t>
+  </si>
+  <si>
+    <t>Print preview</t>
+  </si>
+  <si>
+    <t>Preview data should be printed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_066</t>
+  </si>
+  <si>
+    <t>Close preview</t>
+  </si>
+  <si>
+    <t>Preview data should be closed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_067</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_068</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Entry should not be added and Operation should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_069</t>
+  </si>
+  <si>
+    <t>Testcase for verify the results displayed in Progress Notes Summary</t>
+  </si>
+  <si>
+    <t>Progress Notes Summary page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify the  result displayed on selecting values from dropdown</t>
+  </si>
+  <si>
+    <t>Data should be displayed as per selection</t>
+  </si>
+  <si>
+    <t>Click on PACS Result view option</t>
+  </si>
+  <si>
+    <t>Page should be navigated</t>
+  </si>
+  <si>
+    <t>Click on print result option</t>
+  </si>
+  <si>
+    <t>Result should be printed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_070</t>
+  </si>
+  <si>
+    <t>Testcase for verify the results displayed in OP Treatment Summary</t>
+  </si>
+  <si>
+    <t>Correct data result should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_071</t>
+  </si>
+  <si>
+    <t>Testcase for verify the results displayed in Previous discharge Summary</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase for verify the contents in Allergies </t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase for saving data in Allergies </t>
+  </si>
+  <si>
+    <t>Enter data in mandatory fields and click on save option</t>
+  </si>
+  <si>
+    <t>Data should get saved</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_074</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in Diagnosis</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_075</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in Investigation Request</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_076</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in Prescription</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_077</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in Physician Order sheet</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_078</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in Medication sheet</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_079</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents in  radiology results under investigation results</t>
+  </si>
+  <si>
+    <t>Results should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Click on search option</t>
+  </si>
+  <si>
+    <t>Verify select a doctor ,PACS Result view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor should be selected and Results should be displayed </t>
+  </si>
+  <si>
+    <t>Verify Next option</t>
+  </si>
+  <si>
+    <t>Page navigation should be proper</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_080</t>
+  </si>
+  <si>
+    <t>Testcase for verify the contents of lab  result under investigation result</t>
+  </si>
+  <si>
+    <t>Click on Group wise,date wise and procedure wise options</t>
+  </si>
+  <si>
+    <t>Contents should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_081</t>
+  </si>
+  <si>
+    <t>Testcase for verify the Reference Request functionality in patient IP consultation</t>
+  </si>
+  <si>
+    <t>Navigate till  Reference request
+Request type date and type of request as can be selected</t>
+  </si>
+  <si>
+    <t>Reference request page shoule be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Enter mandatory fields 
+Click on "Add doctor to list"
+Enter reason for request  and click Send Request option</t>
+  </si>
+  <si>
+    <t>Request should get send with a notification</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_082</t>
+  </si>
+  <si>
+    <t>Testcase for send discharge  Request functionality In patient IP consultation</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields like discharge date and reason for discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should get entered via  date picker and dropdown </t>
+  </si>
+  <si>
+    <t>Click on send request option</t>
+  </si>
+  <si>
+    <t>Verify close option</t>
+  </si>
+  <si>
+    <t>page should get closed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_083</t>
+  </si>
+  <si>
+    <t>Testcase for send surgery  Request functionality in patient IP consultation</t>
+  </si>
+  <si>
+    <t>It should be properly aligned</t>
+  </si>
+  <si>
+    <t>Test case for Diagnosis view</t>
+  </si>
+  <si>
+    <t>It should view diagnosis details</t>
+  </si>
+  <si>
+    <t>Test case for Add allergy</t>
+  </si>
+  <si>
+    <t>Enter data in mandatory fields and click save option</t>
+  </si>
+  <si>
+    <t>Allergy should get added</t>
+  </si>
+  <si>
+    <t>Test case for Surgery calender</t>
+  </si>
+  <si>
+    <t>Surgery details should be displayed on selection</t>
+  </si>
+  <si>
+    <t>Previous , Next selection under surgery calender</t>
+  </si>
+  <si>
+    <t>Click Previous , Next selection</t>
+  </si>
+  <si>
+    <t>Next/Previous page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test case for File attach</t>
+  </si>
+  <si>
+    <t>File should get attached</t>
+  </si>
+  <si>
+    <t>Verify view and delete option under file attach</t>
+  </si>
+  <si>
+    <t>Click and Verify view and delete option</t>
+  </si>
+  <si>
+    <t>File should be viewed and deleted</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_084</t>
+  </si>
+  <si>
+    <t>Test case for Discharge Approval under Discharge summary</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Discharge Approval</t>
+  </si>
+  <si>
+    <t>Discharge Approval should be success</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields and click save option</t>
+  </si>
+  <si>
+    <t>Click on Cancel Approval option</t>
+  </si>
+  <si>
+    <t>Approval should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_085</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Verify previous/Next options</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_086</t>
+  </si>
+  <si>
+    <t>Discharge prescription</t>
+  </si>
+  <si>
+    <t>Print option</t>
+  </si>
+  <si>
+    <t>prescription Templates</t>
+  </si>
+  <si>
+    <t>Templates should be listed</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_087</t>
+  </si>
+  <si>
+    <t>Discharge summary</t>
+  </si>
+  <si>
+    <t>Enter data in fields and verify save option</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_088</t>
+  </si>
+  <si>
+    <t>Discharge summary new</t>
+  </si>
+  <si>
+    <t>save option</t>
+  </si>
+  <si>
+    <t>MED_EMROP_TC_089</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Clear option</t>
+  </si>
+  <si>
+    <t>Click on clear option</t>
+  </si>
+  <si>
+    <t>search option</t>
+  </si>
+  <si>
+    <t>Enter any keyword under search option</t>
+  </si>
+  <si>
+    <t>Data should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: 
+ Patient should be admitted status.
+Navigate to In- Patients tab &gt;Drug schedule status which navigates the user with a popup page.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: 
+ Patient should be admitted status.
+Navigate to In -Patients tab &gt;Drug schedule status which navigates the user with a popup page. Search for any keyword and 
+Click on the clear option and verify whether data gets cleared
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t>Precondition: 
+ Patient should be admitted status.Navigate to In -Patients tab &gt;Drug schedule status which navigates the user with a popup page. 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be admitted status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition : There must be some patients in the admitted,direct referral, transferred, discharged status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be admitted status
+Navigate to the EMR &gt; In-patients tab and try to select a nursing station from dropdown
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition : There must be some patients in the Arrived,Pre-consulting,Being Seen and Re-consult statuses
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out -Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient status should be changed to admitted in  dashboard&gt;Billing icon&gt;In-patient &gt;Admission Requisition
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition : There must be some patients in the admitted,direct referral, transferred, discharged status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient&gt;Double click on any patient&gt;Patient IP Consultation&gt;General Entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Precondition : There must be some patients in the admitted,direct referral, transferred, discharged status 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient&gt;Double click on any patient&gt;Patient IP Consultation&gt;Progress Notes                            </t>
+  </si>
+  <si>
+    <t>Navigate till Progress Notes and try to edit  an already existing data
+Verify result
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient&gt;Double click on any patient&gt;Patient IP Consultation&gt;Progress Notes</t>
+  </si>
+  <si>
+    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;  File attachment
+Click on the scanned files
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the submenu.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;General Request   and verify the sub menus.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Operation Notes  and verify the contents.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition:Navigate till  Operation Notes 
+Click on Surgery Team tab and verify the contents
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Navigate till  Operation Notes 
+Click on Surgery Team tab 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t>Precondition:Navigate till  Operation Notes 
+Click on Surgery Team tab and save a newly added Surgery Team
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till Preview page of Surgery Team tab under Operation notes of Patient IP consultation
+Verify contents of page
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till Preview page of Surgery Team tab under Operation notes of Patient IP consultation
+Verify contents of page
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Add details in mandatory fields for New Surgery Team.
+Click on Save option
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Preview page of Surgery Team tab under Operation notes of Patient IP consultation
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t>Navigate till  Surgery Team  under Operation notes of Patient IP consultation
+Verify the functionality of cancel option while adding a new surgey Team.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+Verify the contents of page
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+After adding a new data try to save it.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+try to delete data.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Navigate till  operative diagnosis  under Operation notes of Patient IP consultation
+Try to add a new entry
+Click on cancel option and verify 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t>Click on print option and verify result 
+Check Print option in Preview</t>
+  </si>
+  <si>
+    <t>Click on close option and verify result 
+Check Close option in Preview</t>
+  </si>
+  <si>
+    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Certificates 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Certificates  and verify the contents.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;In-Patient
+</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be in Being seen /Consulted status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be in Being seen/consulted status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be in Being seen /Consulted status
+Verify the contents listed
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Verify the contents listed
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be in Being seen status
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Patient IP Consultation&gt; Operation Notes 
+Click on Operative Findings tab and verify 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation</t>
   </si>
   <si>
     <t xml:space="preserve">Precondition:Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till  Operation Notes 
 Click on Operative Findings tab 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation
 </t>
-  </si>
-  <si>
-    <t>Operative Findings page should be displayed</t>
-  </si>
-  <si>
-    <t>Click on 'New' option and enter mandatory fields</t>
-  </si>
-  <si>
-    <t>Mandatory fields should be highlighted</t>
-  </si>
-  <si>
-    <t>Click on save options and verify Notification message gets displayed</t>
-  </si>
-  <si>
-    <t>Data should be saved with a notification</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_055</t>
-  </si>
-  <si>
-    <t>Testcase for Delete   in Operative Findings</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient</t>
   </si>
   <si>
     <t xml:space="preserve">
 Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Patient IP Consultation&gt; Operation Notes 
-Click on Operative Findings tab and verify delete</t>
-  </si>
-  <si>
-    <t>Operative Findings tab should be displayed</t>
-  </si>
-  <si>
-    <t>Existing data should get deleted</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_056</t>
-  </si>
-  <si>
-    <t>Testcase for Edit   in Operative Findings</t>
+Click on Operative Findings tab and verify delete
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient</t>
   </si>
   <si>
     <t xml:space="preserve">
 Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Patient IP Consultation&gt; Operation Notes 
 Click on Operative Findings tab and verify Edit
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient
 </t>
   </si>
   <si>
-    <t>Try to Edit an existing data</t>
-  </si>
-  <si>
-    <t>Data should be editable</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_057</t>
-  </si>
-  <si>
-    <t>Testcase for preview   in Operative Findings</t>
-  </si>
-  <si>
     <t>Precondition:Navigate till Patient IP Consultation&gt; Operation Notes 
-Click on Operative Findings tab and verify preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data should be displayed </t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_058</t>
-  </si>
-  <si>
-    <t>Testcase for cancel   in Operative Findings</t>
+Click on Operative Findings tab and verify preview
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient</t>
   </si>
   <si>
     <t xml:space="preserve">Precondition:Navigate till Patient IP Consultation&gt; Operation Notes 
 Click on Operative Findings tab and verify cancel option
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Try to add a new entry
-Click on cancel option and verify </t>
-  </si>
-  <si>
-    <t>Action should be cancelled</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_059</t>
-  </si>
-  <si>
-    <t>Testcase for Print   in Operative Findings preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Patient IP Consultation&gt;Operative Notes&gt;Operative Findings
 Click on preview option
-Click on print option and verify result </t>
-  </si>
-  <si>
-    <t>Operative Findings tab should be displayed
-It should get printed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_060</t>
-  </si>
-  <si>
-    <t>Testcase for Close Preview   in Operative Findings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Click on print option and verify result 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Patient IP Consultation&gt;Operative Notes&gt;Operative Findings
 Click on preview option
-Click on close option and verify result </t>
-  </si>
-  <si>
-    <t>Operative Findings tab should be displayed
-It should be closed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_061</t>
-  </si>
-  <si>
-    <t>Test case for Remarks Functionality</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes</t>
+Click on close option and verify result 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient</t>
   </si>
   <si>
     <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Operation notes
 Select Remarks option 
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes
 </t>
-  </si>
-  <si>
-    <t>Remarks option page should be displayed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_062</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
   <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Operation notes&gt;Select Remarks tab
-Click on " New" option and  enter mandatory fields , verify data gets saved</t>
-  </si>
-  <si>
-    <t>New Data should be added</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_063</t>
-  </si>
-  <si>
-    <t>Edit</t>
+Click on " New" option and  enter mandatory fields , verify data gets saved
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes</t>
   </si>
   <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Operation notes&gt;Selecet Remarks tab
-Click on " Edit" option and verify result</t>
-  </si>
-  <si>
-    <t>Data should be Edited</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_064</t>
-  </si>
-  <si>
-    <t>Preview</t>
+Click on " Edit" option and verify result
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes</t>
   </si>
   <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Operation notes&gt;Selecet Remarks tab
-Click on " Preview" option and verify result</t>
-  </si>
-  <si>
-    <t>Data should be previewed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_065</t>
-  </si>
-  <si>
-    <t>Print preview</t>
+Click on " Preview" option and verify result
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes</t>
   </si>
   <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
 Navigate till Operation notes&gt;Selecet Remarks tab
 Click on " Preview" option 
-Click on Print preview and  verify result</t>
-  </si>
-  <si>
-    <t>Preview data should be printed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_066</t>
-  </si>
-  <si>
-    <t>Close preview</t>
+Click on Print preview and  verify result
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes</t>
   </si>
   <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes
 Navigate till Operation notes&gt;Selecet Remarks tab
 Click on " close" option and verify result</t>
   </si>
   <si>
-    <t>Preview data should be closed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_067</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_068</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
     <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes
+Navigate till Operation notes&gt;Selecet Remarks tab
+Click on " Edit" option and verify result</t>
+  </si>
+  <si>
+    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Patient IP Consultation&gt;&gt;Operation Notes
 Navigate till Operation notes&gt;Selecet Remarks tab
 Try to add a new entry on clciking "New"
 Click on " Cancel" option and verify result</t>
   </si>
   <si>
-    <t>Entry should not be added and Operation should be cancelled</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_069</t>
-  </si>
-  <si>
-    <t>Testcase for verify the results displayed in Progress Notes Summary</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation
 Navigate till Progress Notes Summary 
 </t>
   </si>
   <si>
-    <t>Progress Notes Summary page should be displayed</t>
-  </si>
-  <si>
-    <t>Verify the  result displayed on selecting values from dropdown</t>
-  </si>
-  <si>
-    <t>Data should be displayed as per selection</t>
-  </si>
-  <si>
-    <t>Click on PACS Result view option</t>
-  </si>
-  <si>
-    <t>Page should be navigated</t>
-  </si>
-  <si>
-    <t>Click on print result option</t>
-  </si>
-  <si>
-    <t>Result should be printed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_070</t>
-  </si>
-  <si>
-    <t>Testcase for verify the results displayed in OP Treatment Summary</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;Progress Notes summary</t>
-  </si>
-  <si>
     <t>Navigate till OP Treatment summary
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP 
 select OP treatment summary and verify the results display</t>
   </si>
   <si>
-    <t>Correct data result should be displayed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_071</t>
-  </si>
-  <si>
-    <t>Testcase for verify the results displayed in Previous discharge Summary</t>
-  </si>
-  <si>
-    <t>Navigate till Previous discharge  summary
-select OP treatment summary and verify the results display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testcase for verify the contents in Allergies </t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Allergies</t>
-  </si>
-  <si>
-    <t>Navigate till Allergies and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testcase for saving data in Allergies </t>
-  </si>
-  <si>
-    <t>Enter data in mandatory fields and click on save option</t>
-  </si>
-  <si>
-    <t>Data should get saved</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_074</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in Diagnosis</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Diagnosis</t>
-  </si>
-  <si>
-    <t>Navigate till Diagnosis and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_075</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in Investigation Request</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Investigation Request</t>
-  </si>
-  <si>
-    <t>Navigate till Investigation Request and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_076</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in Prescription</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Prescription</t>
-  </si>
-  <si>
-    <t>Navigate till Prescription and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_077</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in Physician Order sheet</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Physician Order</t>
-  </si>
-  <si>
-    <t>Navigate till Physician Order and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_078</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in Medication sheet</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;General Entries&gt;&gt;Medication</t>
-  </si>
-  <si>
-    <t>Navigate till Medication sheet and verify the content display</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_079</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents in  radiology results under investigation results</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;Investigation Results&gt;&gt;radiology  Results</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the radiology results</t>
-  </si>
-  <si>
-    <t>Results should be displayed correctly</t>
-  </si>
-  <si>
-    <t>Click on search option</t>
-  </si>
-  <si>
-    <t>Verify select a doctor ,PACS Result view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor should be selected and Results should be displayed </t>
-  </si>
-  <si>
-    <t>Verify Next option</t>
-  </si>
-  <si>
-    <t>Page navigation should be proper</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_080</t>
-  </si>
-  <si>
-    <t>Testcase for verify the contents of lab  result under investigation result</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP Consultation&gt;&gt;Investigation Results&gt;&gt;lab Results</t>
-  </si>
-  <si>
-    <t>Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the lab result</t>
-  </si>
-  <si>
-    <t>Click on Group wise,date wise and procedure wise options</t>
-  </si>
-  <si>
-    <t>Contents should be displayed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_081</t>
-  </si>
-  <si>
-    <t>Testcase for verify the Reference Request functionality in patient IP consultation</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General Request&gt;&gt;Reference request</t>
+    <t xml:space="preserve">Navigate till Previous discharge  summary
+select OP treatment summary and verify the results display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Allergies and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in mandatory fields and click on save option
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Diagnosis and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Investigation Request and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Prescription and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Physician Order and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate till Medication sheet and verify the content display
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the radiology results
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the EMR &gt; In-patients tab&gt;Click on any patient under In-Patient listed&gt;patient IP  Consultation&gt;Investigation Results   and verify the lab result
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;InPatient&gt;&gt;Click on Admitted status of inpatient&gt;&gt;Patient IP </t>
   </si>
   <si>
     <t xml:space="preserve">Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
 </t>
   </si>
   <si>
-    <t>Navigate till  Reference request
-Request type date and type of request as can be selected</t>
-  </si>
-  <si>
-    <t>Reference request page shoule be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Enter mandatory fields 
-Click on "Add doctor to list"
-Enter reason for request  and click Send Request option</t>
-  </si>
-  <si>
-    <t>Request should get send with a notification</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_082</t>
-  </si>
-  <si>
-    <t>Testcase for send discharge  Request functionality In patient IP consultation</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General Request&gt;&gt;Discharge request</t>
-  </si>
-  <si>
     <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
 Navigate till  Discharge request</t>
   </si>
   <si>
-    <t>Enter mandatory fields like discharge date and reason for discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data should get entered via  date picker and dropdown </t>
-  </si>
-  <si>
-    <t>Click on send request option</t>
-  </si>
-  <si>
-    <t>Verify close option</t>
-  </si>
-  <si>
-    <t>page should get closed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_083</t>
-  </si>
-  <si>
-    <t>Testcase for send surgery  Request functionality in patient IP consultation</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General Request&gt;&gt;surgery  request</t>
-  </si>
-  <si>
     <t>Navigate to the EMR &gt; Out-patients tab&gt;Click on a patient under Todays waiting outpatient/Todays consulted out patient.
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
 Navigate till  Surgery request
 Verify alignment and page contents</t>
   </si>
   <si>
-    <t>It should be properly aligned</t>
-  </si>
-  <si>
-    <t>Test case for Diagnosis view</t>
-  </si>
-  <si>
-    <t>Click on Diagnosis view option</t>
-  </si>
-  <si>
-    <t>It should view diagnosis details</t>
-  </si>
-  <si>
-    <t>Test case for Add allergy</t>
-  </si>
-  <si>
-    <t>Enter data in mandatory fields and click save option</t>
-  </si>
-  <si>
-    <t>Allergy should get added</t>
-  </si>
-  <si>
-    <t>Test case for Surgery calender</t>
-  </si>
-  <si>
-    <t>Click on Surgery calender option and select Theater</t>
-  </si>
-  <si>
-    <t>Surgery details should be displayed on selection</t>
-  </si>
-  <si>
-    <t>Previous , Next selection under surgery calender</t>
-  </si>
-  <si>
-    <t>Click Previous , Next selection</t>
-  </si>
-  <si>
-    <t>Next/Previous page should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test case for File attach</t>
+    <t xml:space="preserve">Click on Diagnosis view option
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in mandatory fields and click save option
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Surgery calender option and select Theater
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General </t>
   </si>
   <si>
     <t xml:space="preserve">Click File attach
 Click choose file and upload
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;General 
 </t>
   </si>
   <si>
-    <t>File should get attached</t>
-  </si>
-  <si>
-    <t>Verify view and delete option under file attach</t>
-  </si>
-  <si>
-    <t>Click and Verify view and delete option</t>
-  </si>
-  <si>
-    <t>File should be viewed and deleted</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_084</t>
-  </si>
-  <si>
-    <t>Test case for Discharge Approval under Discharge summary</t>
-  </si>
-  <si>
-    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge summary</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Discharge Approval</t>
-  </si>
-  <si>
-    <t>Discharge Approval should be success</t>
-  </si>
-  <si>
-    <t>Enter mandatory fields and click save option</t>
-  </si>
-  <si>
-    <t>Click on Cancel Approval option</t>
-  </si>
-  <si>
-    <t>Approval should be cancelled</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_085</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Diagnosis</t>
-  </si>
-  <si>
-    <t>Verify previous/Next options</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_086</t>
-  </si>
-  <si>
-    <t>Discharge prescription</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Discharge prescription</t>
-  </si>
-  <si>
-    <t>Print option</t>
-  </si>
-  <si>
-    <t>prescription Templates</t>
-  </si>
-  <si>
-    <t>Templates should be listed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_087</t>
-  </si>
-  <si>
-    <t>Discharge summary</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Discharge summary</t>
-  </si>
-  <si>
-    <t>Enter data in fields and verify save option</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_088</t>
-  </si>
-  <si>
-    <t>Discharge summary new</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Discharge summary New</t>
-  </si>
-  <si>
-    <t>save option</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_089</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>Precondition:Patient should be in admitted/dischareg/referral/transferred state
-Navigate till Investigation</t>
-  </si>
-  <si>
-    <t>Clear option</t>
-  </si>
-  <si>
-    <t>Click on clear option</t>
-  </si>
-  <si>
-    <t>search option</t>
-  </si>
-  <si>
-    <t>Enter any keyword under search option</t>
-  </si>
-  <si>
-    <t>Data should be displayed</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_090</t>
-  </si>
-  <si>
-    <t>Appointment</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_091</t>
-  </si>
-  <si>
-    <t>Patient search</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_092</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_093</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_094</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_095</t>
-  </si>
-  <si>
-    <t>MED_EMROP_TC_096</t>
+    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Diagnosis
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Discharge prescription
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Discharge summary
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Discharge summary New
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition:Patient should be in admitted/dischareg/referral/transferred state
+Navigate till Investigation
+Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;select any patient under admitted status&gt;&gt;patient IP consultation&gt;&gt;Discharge </t>
   </si>
 </sst>
 </file>
@@ -2904,8 +2902,8 @@
   <dimension ref="A1:R721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2912,7 @@
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="43.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="53.140625" style="9" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="9" customWidth="1"/>
@@ -2983,7 +2981,9 @@
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>20</v>
@@ -3013,7 +3013,9 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3047,7 +3049,9 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
@@ -3074,6 +3078,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
@@ -3090,6 +3097,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
       <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
@@ -3099,6 +3109,9 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>36</v>
       </c>
@@ -3108,6 +3121,9 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
@@ -3117,6 +3133,9 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
@@ -3126,6 +3145,9 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270" x14ac:dyDescent="0.25">
+      <c r="E10" s="15">
+        <v>9</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
@@ -3147,13 +3169,18 @@
       <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
@@ -3163,6 +3190,9 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
@@ -3172,6 +3202,9 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
@@ -3181,6 +3214,9 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
@@ -3190,6 +3226,9 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="7">
+        <v>6</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
@@ -3199,6 +3238,9 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E17" s="7">
+        <v>7</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
@@ -3208,6 +3250,9 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="7">
+        <v>8</v>
+      </c>
       <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
@@ -3217,6 +3262,9 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="7">
+        <v>9</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>57</v>
       </c>
@@ -3226,6 +3274,9 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>59</v>
       </c>
@@ -3235,6 +3286,9 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="7">
+        <v>11</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>61</v>
       </c>
@@ -3244,6 +3298,9 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="7">
+        <v>12</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3253,6 +3310,9 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="7">
+        <v>13</v>
+      </c>
       <c r="F23" s="9" t="s">
         <v>65</v>
       </c>
@@ -3262,6 +3322,9 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="E24" s="7">
+        <v>14</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>67</v>
       </c>
@@ -3283,13 +3346,18 @@
       <c r="D25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
       <c r="F25" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
@@ -3302,6 +3370,9 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
       <c r="F27" s="9" t="s">
         <v>73</v>
       </c>
@@ -3311,6 +3382,9 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="7">
+        <v>4</v>
+      </c>
       <c r="F28" s="9" t="s">
         <v>75</v>
       </c>
@@ -3320,6 +3394,9 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="E29" s="7">
+        <v>5</v>
+      </c>
       <c r="F29" s="9" t="s">
         <v>77</v>
       </c>
@@ -3341,12 +3418,18 @@
       <c r="D30" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
       <c r="F31" s="9" t="s">
         <v>21</v>
       </c>
@@ -3359,6 +3442,9 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="15">
+        <v>3</v>
+      </c>
       <c r="F32" s="9" t="s">
         <v>73</v>
       </c>
@@ -3367,7 +3453,10 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="6:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="15">
+        <v>4</v>
+      </c>
       <c r="F33" s="9" t="s">
         <v>81</v>
       </c>
@@ -3376,7 +3465,10 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="6:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="E34" s="15">
+        <v>5</v>
+      </c>
       <c r="F34" s="9" t="s">
         <v>77</v>
       </c>
@@ -3385,7 +3477,10 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="15">
+        <v>6</v>
+      </c>
       <c r="F35" s="9" t="s">
         <v>82</v>
       </c>
@@ -3394,7 +3489,10 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="15">
+        <v>7</v>
+      </c>
       <c r="F36" s="9" t="s">
         <v>84</v>
       </c>
@@ -3403,7 +3501,10 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="15">
+        <v>8</v>
+      </c>
       <c r="F37" s="9" t="s">
         <v>86</v>
       </c>
@@ -3412,7 +3513,10 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="15">
+        <v>9</v>
+      </c>
       <c r="F38" s="9" t="s">
         <v>88</v>
       </c>
@@ -3421,7 +3525,10 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="6:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="E39" s="15">
+        <v>10</v>
+      </c>
       <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
@@ -3430,7 +3537,10 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="6:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="15">
+        <v>11</v>
+      </c>
       <c r="F40" s="7" t="s">
         <v>92</v>
       </c>
@@ -3439,7 +3549,10 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="15">
+        <v>12</v>
+      </c>
       <c r="F41" s="9" t="s">
         <v>94</v>
       </c>
@@ -3448,7 +3561,10 @@
       </c>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" s="15">
+        <v>13</v>
+      </c>
       <c r="F42" s="9" t="s">
         <v>96</v>
       </c>
@@ -3457,7 +3573,10 @@
       </c>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="15">
+        <v>14</v>
+      </c>
       <c r="F43" s="9" t="s">
         <v>98</v>
       </c>
@@ -3466,7 +3585,10 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" s="15">
+        <v>15</v>
+      </c>
       <c r="F44" s="9" t="s">
         <v>100</v>
       </c>
@@ -3475,7 +3597,10 @@
       </c>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45" s="15">
+        <v>16</v>
+      </c>
       <c r="F45" s="9" t="s">
         <v>102</v>
       </c>
@@ -3484,7 +3609,10 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="6:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="15">
+        <v>17</v>
+      </c>
       <c r="F46" s="9" t="s">
         <v>104</v>
       </c>
@@ -3493,7 +3621,10 @@
       </c>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E47" s="15">
+        <v>18</v>
+      </c>
       <c r="F47" s="9" t="s">
         <v>105</v>
       </c>
@@ -3502,7 +3633,10 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="15">
+        <v>19</v>
+      </c>
       <c r="F48" s="9" t="s">
         <v>107</v>
       </c>
@@ -3524,13 +3658,18 @@
       <c r="D49" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
       <c r="F49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50" s="7">
+        <v>2</v>
+      </c>
       <c r="F50" s="7" t="s">
         <v>21</v>
       </c>
@@ -3543,6 +3682,9 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="7">
+        <v>3</v>
+      </c>
       <c r="F51" s="7" t="s">
         <v>112</v>
       </c>
@@ -3552,6 +3694,9 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="E52" s="7">
+        <v>4</v>
+      </c>
       <c r="F52" s="7" t="s">
         <v>114</v>
       </c>
@@ -3561,6 +3706,9 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E53" s="7">
+        <v>5</v>
+      </c>
       <c r="F53" s="9" t="s">
         <v>116</v>
       </c>
@@ -3570,6 +3718,9 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="7">
+        <v>6</v>
+      </c>
       <c r="F54" s="7" t="s">
         <v>118</v>
       </c>
@@ -3579,6 +3730,9 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E55" s="7">
+        <v>7</v>
+      </c>
       <c r="F55" s="7" t="s">
         <v>120</v>
       </c>
@@ -3597,7 +3751,9 @@
       <c r="D56" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
       <c r="F56" s="9" t="s">
         <v>124</v>
       </c>
@@ -3607,6 +3763,9 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E57" s="7">
+        <v>2</v>
+      </c>
       <c r="F57" s="9" t="s">
         <v>21</v>
       </c>
@@ -3616,6 +3775,9 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="E58" s="7">
+        <v>3</v>
+      </c>
       <c r="F58" s="9" t="s">
         <v>126</v>
       </c>
@@ -3625,6 +3787,9 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="7">
+        <v>4</v>
+      </c>
       <c r="F59" s="9" t="s">
         <v>128</v>
       </c>
@@ -3634,6 +3799,9 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E60" s="7">
+        <v>5</v>
+      </c>
       <c r="F60" s="9" t="s">
         <v>130</v>
       </c>
@@ -3643,6 +3811,9 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="7">
+        <v>6</v>
+      </c>
       <c r="F61" s="9" t="s">
         <v>132</v>
       </c>
@@ -3652,6 +3823,9 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E62" s="7">
+        <v>7</v>
+      </c>
       <c r="F62" s="9" t="s">
         <v>134</v>
       </c>
@@ -3661,6 +3835,9 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="7">
+        <v>8</v>
+      </c>
       <c r="F63" s="9" t="s">
         <v>136</v>
       </c>
@@ -3670,6 +3847,9 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E64" s="7">
+        <v>9</v>
+      </c>
       <c r="F64" s="9" t="s">
         <v>138</v>
       </c>
@@ -3679,6 +3859,9 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E65" s="7">
+        <v>10</v>
+      </c>
       <c r="F65" s="9" t="s">
         <v>140</v>
       </c>
@@ -3688,6 +3871,9 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="E66" s="7">
+        <v>11</v>
+      </c>
       <c r="F66" s="9" t="s">
         <v>142</v>
       </c>
@@ -3697,6 +3883,9 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="7">
+        <v>12</v>
+      </c>
       <c r="F67" s="9" t="s">
         <v>144</v>
       </c>
@@ -3706,6 +3895,9 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="E68" s="7">
+        <v>13</v>
+      </c>
       <c r="F68" s="7" t="s">
         <v>146</v>
       </c>
@@ -3715,6 +3907,9 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E69" s="7">
+        <v>14</v>
+      </c>
       <c r="F69" s="7" t="s">
         <v>148</v>
       </c>
@@ -3724,6 +3919,9 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E70" s="7">
+        <v>15</v>
+      </c>
       <c r="F70" s="7" t="s">
         <v>150</v>
       </c>
@@ -3745,13 +3943,18 @@
       <c r="D71" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
       <c r="F71" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="7">
+        <v>2</v>
+      </c>
       <c r="F72" s="7" t="s">
         <v>155</v>
       </c>
@@ -3764,6 +3967,9 @@
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E73" s="7">
+        <v>3</v>
+      </c>
       <c r="F73" s="7" t="s">
         <v>26</v>
       </c>
@@ -3776,6 +3982,9 @@
       <c r="K73" s="10"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E74" s="7">
+        <v>4</v>
+      </c>
       <c r="F74" s="7" t="s">
         <v>31</v>
       </c>
@@ -3788,6 +3997,9 @@
       <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="E75" s="7">
+        <v>5</v>
+      </c>
       <c r="F75" s="7" t="s">
         <v>160</v>
       </c>
@@ -3797,6 +4009,9 @@
       <c r="K75" s="10"/>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" s="7">
+        <v>6</v>
+      </c>
       <c r="F76" s="7" t="s">
         <v>162</v>
       </c>
@@ -3806,6 +4021,9 @@
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="7">
+        <v>7</v>
+      </c>
       <c r="F77" s="7" t="s">
         <v>163</v>
       </c>
@@ -3827,13 +4045,18 @@
       <c r="D78" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
       <c r="F78" s="7" t="s">
         <v>167</v>
       </c>
       <c r="K78" s="10"/>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E79" s="7">
+        <v>2</v>
+      </c>
       <c r="F79" s="7" t="s">
         <v>168</v>
       </c>
@@ -3846,6 +4069,9 @@
       <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E80" s="7">
+        <v>3</v>
+      </c>
       <c r="F80" s="7" t="s">
         <v>26</v>
       </c>
@@ -3855,6 +4081,9 @@
       <c r="K80" s="10"/>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="7">
+        <v>4</v>
+      </c>
       <c r="F81" s="7" t="s">
         <v>169</v>
       </c>
@@ -3864,6 +4093,9 @@
       <c r="K81" s="10"/>
     </row>
     <row r="82" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="7">
+        <v>5</v>
+      </c>
       <c r="F82" s="7" t="s">
         <v>171</v>
       </c>
@@ -3873,6 +4105,9 @@
       <c r="K82" s="10"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E83" s="7">
+        <v>6</v>
+      </c>
       <c r="F83" s="7" t="s">
         <v>173</v>
       </c>
@@ -3882,6 +4117,9 @@
       <c r="K83" s="10"/>
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E84" s="7">
+        <v>7</v>
+      </c>
       <c r="F84" s="7" t="s">
         <v>175</v>
       </c>
@@ -3891,6 +4129,9 @@
       <c r="K84" s="10"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E85" s="7">
+        <v>8</v>
+      </c>
       <c r="F85" s="7" t="s">
         <v>177</v>
       </c>
@@ -3912,6 +4153,9 @@
       <c r="D86" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="E86" s="15">
+        <v>1</v>
+      </c>
       <c r="F86" s="7" t="s">
         <v>181</v>
       </c>
@@ -3922,6 +4166,9 @@
     </row>
     <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
+      <c r="E87" s="15">
+        <v>2</v>
+      </c>
       <c r="F87" s="7" t="s">
         <v>183</v>
       </c>
@@ -3932,6 +4179,9 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
+      <c r="E88" s="15">
+        <v>3</v>
+      </c>
       <c r="F88" s="7" t="s">
         <v>185</v>
       </c>
@@ -3942,6 +4192,9 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
+      <c r="E89" s="15">
+        <v>4</v>
+      </c>
       <c r="F89" s="7" t="s">
         <v>187</v>
       </c>
@@ -3950,7 +4203,7 @@
       </c>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>189</v>
       </c>
@@ -3960,11 +4213,11 @@
       <c r="D90" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>191</v>
+      <c r="E90" s="7">
+        <v>1</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>192</v>
+        <v>549</v>
       </c>
       <c r="G90" s="7"/>
       <c r="K90" s="10"/>
@@ -3973,12 +4226,14 @@
       <c r="A91" s="7"/>
       <c r="B91" s="19"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="7">
+        <v>2</v>
+      </c>
       <c r="F91" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>72</v>
@@ -3987,43 +4242,43 @@
     </row>
     <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>197</v>
+        <v>550</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="16" t="s">
@@ -4035,33 +4290,35 @@
       <c r="A94" s="7"/>
       <c r="B94" s="19"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="7">
+        <v>2</v>
+      </c>
       <c r="F94" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>206</v>
+        <v>552</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="16" t="s">
@@ -4073,30 +4330,32 @@
       <c r="A96" s="7"/>
       <c r="B96" s="19"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="7">
+        <v>2</v>
+      </c>
       <c r="F96" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>72</v>
@@ -4107,12 +4366,14 @@
       <c r="A98" s="7"/>
       <c r="B98" s="19"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="7">
+        <v>2</v>
+      </c>
       <c r="F98" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K98" s="10"/>
     </row>
@@ -4120,7 +4381,9 @@
       <c r="A99" s="7"/>
       <c r="B99" s="19"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="7">
+        <v>3</v>
+      </c>
       <c r="F99" s="7" t="s">
         <v>112</v>
       </c>
@@ -4133,12 +4396,14 @@
       <c r="A100" s="7"/>
       <c r="B100" s="19"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="7">
+        <v>4</v>
+      </c>
       <c r="F100" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K100" s="10"/>
     </row>
@@ -4146,7 +4411,9 @@
       <c r="A101" s="7"/>
       <c r="B101" s="19"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="7">
+        <v>5</v>
+      </c>
       <c r="F101" s="7" t="s">
         <v>118</v>
       </c>
@@ -4159,9 +4426,11 @@
       <c r="A102" s="7"/>
       <c r="B102" s="19"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="7">
+        <v>6</v>
+      </c>
       <c r="F102" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>121</v>
@@ -4172,12 +4441,14 @@
       <c r="A103" s="7"/>
       <c r="B103" s="19"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="7">
+        <v>7</v>
+      </c>
       <c r="F103" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K103" s="10"/>
     </row>
@@ -4185,12 +4456,14 @@
       <c r="A104" s="7"/>
       <c r="B104" s="19"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="7">
+        <v>8</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K104" s="10"/>
     </row>
@@ -4198,57 +4471,59 @@
       <c r="A105" s="7"/>
       <c r="B105" s="19"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="7">
+        <v>9</v>
+      </c>
       <c r="F105" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
+      </c>
+      <c r="E106" s="7">
+        <v>1</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>223</v>
+        <v>554</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H106" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>18</v>
+        <v>555</v>
       </c>
       <c r="K107" s="10"/>
     </row>
@@ -4256,12 +4531,14 @@
       <c r="A108" s="7"/>
       <c r="B108" s="19"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
+      <c r="E108" s="7">
+        <v>2</v>
+      </c>
       <c r="F108" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H108" s="18" t="s">
         <v>72</v>
@@ -4272,12 +4549,14 @@
       <c r="A109" s="7"/>
       <c r="B109" s="19"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="7">
+        <v>3</v>
+      </c>
       <c r="F109" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K109" s="10"/>
     </row>
@@ -4285,12 +4564,14 @@
       <c r="A110" s="7"/>
       <c r="B110" s="19"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="7">
+        <v>4</v>
+      </c>
       <c r="F110" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K110" s="10"/>
     </row>
@@ -4298,12 +4579,14 @@
       <c r="A111" s="7"/>
       <c r="B111" s="19"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="7">
+        <v>5</v>
+      </c>
       <c r="F111" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K111" s="10"/>
     </row>
@@ -4311,12 +4594,14 @@
       <c r="A112" s="7"/>
       <c r="B112" s="19"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="7">
+        <v>6</v>
+      </c>
       <c r="F112" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K112" s="10"/>
     </row>
@@ -4324,30 +4609,32 @@
       <c r="A113" s="7"/>
       <c r="B113" s="19"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
+      <c r="E113" s="7">
+        <v>7</v>
+      </c>
       <c r="F113" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K113" s="10"/>
     </row>
     <row r="114" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>191</v>
+        <v>233</v>
+      </c>
+      <c r="E114" s="7">
+        <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>242</v>
+        <v>556</v>
       </c>
       <c r="K114" s="10"/>
     </row>
@@ -4355,12 +4642,14 @@
       <c r="A115" s="7"/>
       <c r="B115" s="19"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="7">
+        <v>2</v>
+      </c>
       <c r="F115" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H115" s="18" t="s">
         <v>72</v>
@@ -4371,12 +4660,14 @@
       <c r="A116" s="7"/>
       <c r="B116" s="19"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
+      <c r="E116" s="7">
+        <v>3</v>
+      </c>
       <c r="F116" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K116" s="10"/>
     </row>
@@ -4384,61 +4675,65 @@
       <c r="A117" s="7"/>
       <c r="B117" s="19"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
+      <c r="E117" s="7">
+        <v>4</v>
+      </c>
       <c r="F117" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K117" s="10"/>
     </row>
     <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
+      </c>
+      <c r="E118" s="7">
+        <v>1</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="K118" s="10"/>
     </row>
     <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E119" s="7"/>
+      <c r="E119" s="7">
+        <v>2</v>
+      </c>
       <c r="F119" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>191</v>
+        <v>244</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="G120" s="7"/>
       <c r="K120" s="10"/>
@@ -4447,30 +4742,32 @@
       <c r="A121" s="7"/>
       <c r="B121" s="19"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="7">
+        <v>2</v>
+      </c>
       <c r="F121" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>191</v>
+        <v>248</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="G122" s="7"/>
       <c r="K122" s="10"/>
@@ -4479,30 +4776,32 @@
       <c r="A123" s="7"/>
       <c r="B123" s="19"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
+      <c r="E123" s="7">
+        <v>2</v>
+      </c>
       <c r="F123" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
+      </c>
+      <c r="E124" s="7">
+        <v>1</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>211</v>
+        <v>557</v>
       </c>
       <c r="G124" s="7"/>
       <c r="K124" s="10"/>
@@ -4511,33 +4810,35 @@
       <c r="A125" s="7"/>
       <c r="B125" s="19"/>
       <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
+      <c r="E125" s="7">
+        <v>2</v>
+      </c>
       <c r="F125" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="E126" s="7">
+        <v>1</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>267</v>
+        <v>558</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="K126" s="10"/>
     </row>
@@ -4545,154 +4846,171 @@
       <c r="A127" s="7"/>
       <c r="B127" s="19"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
+      <c r="E127" s="7">
+        <v>2</v>
+      </c>
       <c r="F127" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K127" s="10"/>
     </row>
     <row r="128" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>273</v>
+        <v>559</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="K128" s="10"/>
     </row>
     <row r="129" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>191</v>
+        <v>263</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>277</v>
+        <v>560</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="K129" s="10"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>2</v>
+      </c>
       <c r="F130" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K130" s="10"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="D131" s="7"/>
+      <c r="E131" s="7">
+        <v>3</v>
+      </c>
       <c r="F131" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K131" s="10"/>
     </row>
     <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="D132" s="7"/>
+      <c r="E132" s="7">
+        <v>4</v>
+      </c>
       <c r="F132" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="K132" s="10"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="D133" s="7"/>
+      <c r="E133" s="7">
+        <v>5</v>
+      </c>
       <c r="F133" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>6</v>
+      </c>
       <c r="F134" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>176</v>
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>191</v>
+        <v>275</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>290</v>
+        <v>561</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>191</v>
+        <v>278</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>294</v>
+        <v>562</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>72</v>
@@ -4701,22 +5019,22 @@
     </row>
     <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>191</v>
+        <v>281</v>
+      </c>
+      <c r="E137" s="7">
+        <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>298</v>
+        <v>563</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>72</v>
@@ -4725,43 +5043,43 @@
     </row>
     <row r="138" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>191</v>
+        <v>284</v>
+      </c>
+      <c r="E138" s="7">
+        <v>1</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>302</v>
+        <v>564</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H138" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>191</v>
+        <v>287</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>306</v>
+        <v>565</v>
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="16" t="s">
@@ -4772,12 +5090,14 @@
     <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
+      <c r="E140" s="7">
+        <v>2</v>
+      </c>
       <c r="F140" s="7" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="H140" s="16"/>
       <c r="K140" s="10"/>
@@ -4785,31 +5105,33 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
+      <c r="E141" s="7">
+        <v>3</v>
+      </c>
       <c r="F141" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="H141" s="16"/>
       <c r="K141" s="10"/>
     </row>
     <row r="142" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>191</v>
+        <v>293</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>313</v>
+        <v>566</v>
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="16" t="s">
@@ -4820,34 +5142,36 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
+      <c r="E143" s="7">
+        <v>2</v>
+      </c>
       <c r="F143" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H143" s="16"/>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>191</v>
+        <v>297</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>318</v>
+        <v>567</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="H144" s="16" t="s">
         <v>72</v>
@@ -4857,32 +5181,36 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
+      <c r="E145" s="7">
+        <v>2</v>
+      </c>
       <c r="F145" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H145" s="16"/>
       <c r="K145" s="10"/>
     </row>
     <row r="146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E146" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
+      </c>
       <c r="F146" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="H146" s="16" t="s">
         <v>72</v>
@@ -4892,34 +5220,36 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
+      <c r="E147" s="7">
+        <v>2</v>
+      </c>
       <c r="F147" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H147" s="16"/>
       <c r="K147" s="10"/>
     </row>
     <row r="148" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>191</v>
+        <v>307</v>
+      </c>
+      <c r="E148" s="7">
+        <v>1</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>318</v>
+        <v>568</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="H148" s="16" t="s">
         <v>72</v>
@@ -4929,55 +5259,57 @@
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
+      <c r="E149" s="7">
+        <v>2</v>
+      </c>
       <c r="F149" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H149" s="16"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>191</v>
+        <v>311</v>
+      </c>
+      <c r="E150" s="7">
+        <v>1</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>332</v>
+        <v>569</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H150" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>191</v>
+        <v>314</v>
+      </c>
+      <c r="E151" s="7">
+        <v>1</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="16" t="s">
@@ -4988,77 +5320,79 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
+      <c r="E152" s="7">
+        <v>2</v>
+      </c>
       <c r="F152" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H152" s="16"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>191</v>
+        <v>318</v>
+      </c>
+      <c r="E153" s="7">
+        <v>1</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>341</v>
+        <v>571</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="H153" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>191</v>
+        <v>321</v>
+      </c>
+      <c r="E154" s="7">
+        <v>1</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>345</v>
+        <v>572</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H154" s="16"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>191</v>
+        <v>324</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>349</v>
+        <v>573</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="16" t="s">
@@ -5070,12 +5404,14 @@
       <c r="A156" s="7"/>
       <c r="B156" s="19"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
+      <c r="E156" s="7">
+        <v>2</v>
+      </c>
       <c r="F156" s="7" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="H156" s="16"/>
       <c r="K156" s="10"/>
@@ -5084,12 +5420,14 @@
       <c r="A157" s="7"/>
       <c r="B157" s="19"/>
       <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="7">
+        <v>3</v>
+      </c>
       <c r="F157" s="7" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="H157" s="16"/>
       <c r="K157" s="10"/>
@@ -5098,29 +5436,31 @@
       <c r="A158" s="7"/>
       <c r="B158" s="19"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
+      <c r="E158" s="7">
+        <v>4</v>
+      </c>
       <c r="F158" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="16"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>191</v>
+        <v>331</v>
+      </c>
+      <c r="E159" s="7">
+        <v>1</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>357</v>
+        <v>574</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="16" t="s">
@@ -5132,12 +5472,14 @@
       <c r="A160" s="7"/>
       <c r="B160" s="19"/>
       <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
+      <c r="E160" s="7">
+        <v>2</v>
+      </c>
       <c r="F160" s="7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="H160" s="16"/>
       <c r="K160" s="10"/>
@@ -5146,34 +5488,36 @@
       <c r="A161" s="7"/>
       <c r="B161" s="19"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
+      <c r="E161" s="7">
+        <v>3</v>
+      </c>
       <c r="F161" s="7" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H161" s="16"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>191</v>
+        <v>336</v>
+      </c>
+      <c r="E162" s="7">
+        <v>1</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>363</v>
+        <v>575</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="H162" s="16" t="s">
         <v>72</v>
@@ -5184,78 +5528,80 @@
       <c r="A163" s="7"/>
       <c r="B163" s="19"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
+      <c r="E163" s="7">
+        <v>2</v>
+      </c>
       <c r="F163" s="7" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="H163" s="16"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>191</v>
+        <v>341</v>
+      </c>
+      <c r="E164" s="7">
+        <v>1</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>369</v>
+        <v>576</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="H164" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>191</v>
+        <v>344</v>
+      </c>
+      <c r="E165" s="7">
+        <v>1</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>373</v>
+        <v>573</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="16"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>191</v>
+        <v>346</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>376</v>
+        <v>577</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="H166" s="16" t="s">
         <v>72</v>
@@ -5264,66 +5610,66 @@
     </row>
     <row r="167" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>380</v>
+        <v>349</v>
+      </c>
+      <c r="E167" s="7">
+        <v>1</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>381</v>
+        <v>578</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="H167" s="16"/>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>385</v>
+        <v>352</v>
+      </c>
+      <c r="E168" s="7">
+        <v>1</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>386</v>
+        <v>579</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="H168" s="16"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>191</v>
+        <v>355</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>72</v>
@@ -5334,12 +5680,14 @@
       <c r="A170" s="7"/>
       <c r="B170" s="19"/>
       <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
+      <c r="E170" s="7">
+        <v>2</v>
+      </c>
       <c r="F170" s="7" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="H170" s="16"/>
       <c r="K170" s="10"/>
@@ -5348,12 +5696,14 @@
       <c r="A171" s="7"/>
       <c r="B171" s="19"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
+      <c r="E171" s="7">
+        <v>3</v>
+      </c>
       <c r="F171" s="7" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="H171" s="16"/>
       <c r="K171" s="10"/>
@@ -5362,12 +5712,14 @@
       <c r="A172" s="7"/>
       <c r="B172" s="19"/>
       <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
+      <c r="E172" s="7">
+        <v>4</v>
+      </c>
       <c r="F172" s="7" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="H172" s="16"/>
       <c r="K172" s="10"/>
@@ -5376,95 +5728,103 @@
       <c r="A173" s="7"/>
       <c r="B173" s="19"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
+      <c r="E173" s="7">
+        <v>5</v>
+      </c>
       <c r="F173" s="7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="H173" s="16"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>191</v>
+        <v>366</v>
+      </c>
+      <c r="E174" s="7">
+        <v>1</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>402</v>
+        <v>581</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>406</v>
+        <v>369</v>
+      </c>
+      <c r="E175" s="7">
+        <v>1</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>407</v>
+        <v>582</v>
       </c>
       <c r="K175" s="10"/>
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="D176" s="7"/>
+      <c r="E176" s="7">
+        <v>2</v>
+      </c>
       <c r="F176" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="K176" s="10"/>
     </row>
     <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="D177" s="7"/>
+      <c r="E177" s="7">
+        <v>3</v>
+      </c>
       <c r="F177" s="7" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
+      </c>
+      <c r="E178" s="7">
+        <v>1</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>72</v>
@@ -5474,43 +5834,49 @@
     <row r="179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="D179" s="7"/>
+      <c r="E179" s="7">
+        <v>2</v>
+      </c>
       <c r="F179" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="K179" s="10"/>
     </row>
     <row r="180" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>3</v>
+      </c>
       <c r="F180" s="7" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>406</v>
+        <v>379</v>
+      </c>
+      <c r="E181" s="7">
+        <v>1</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>419</v>
+        <v>584</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>72</v>
@@ -5520,11 +5886,14 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="D182" s="7"/>
+      <c r="E182" s="15">
+        <v>2</v>
+      </c>
       <c r="F182" s="7" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="K182" s="10"/>
     </row>
@@ -5532,29 +5901,32 @@
       <c r="A183" s="7"/>
       <c r="B183" s="19"/>
       <c r="D183" s="7"/>
+      <c r="E183" s="15">
+        <v>3</v>
+      </c>
       <c r="F183" s="7" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="K183" s="10"/>
     </row>
     <row r="184" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>406</v>
+        <v>386</v>
+      </c>
+      <c r="E184" s="7">
+        <v>1</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>427</v>
+        <v>585</v>
       </c>
       <c r="G184" s="7"/>
       <c r="K184" s="10"/>
@@ -5562,6 +5934,9 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="D185" s="7"/>
+      <c r="E185" s="15">
+        <v>2</v>
+      </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="K185" s="10"/>
@@ -5569,25 +5944,28 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="D186" s="7"/>
+      <c r="E186" s="15">
+        <v>3</v>
+      </c>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>406</v>
+        <v>388</v>
+      </c>
+      <c r="E187" s="7">
+        <v>1</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>430</v>
+        <v>586</v>
       </c>
       <c r="H187" s="18" t="s">
         <v>72</v>
@@ -5595,50 +5973,59 @@
       <c r="K187" s="10"/>
     </row>
     <row r="188" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E188" s="15">
+        <v>2</v>
+      </c>
       <c r="F188" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="K188" s="10"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E189" s="15">
+        <v>3</v>
+      </c>
       <c r="F189" s="7" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="K189" s="10"/>
     </row>
     <row r="190" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E190" s="15">
+        <v>4</v>
+      </c>
       <c r="F190" s="7" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>438</v>
+        <v>395</v>
+      </c>
+      <c r="E191" s="7">
+        <v>1</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>439</v>
+        <v>587</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="H191" s="18" t="s">
         <v>72</v>
@@ -5647,22 +6034,22 @@
     </row>
     <row r="192" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>438</v>
+        <v>398</v>
+      </c>
+      <c r="E192" s="7">
+        <v>1</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>443</v>
+        <v>588</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="K192" s="10"/>
     </row>
@@ -5670,12 +6057,14 @@
       <c r="A193" s="7"/>
       <c r="B193" s="19"/>
       <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
+      <c r="E193" s="7">
+        <v>2</v>
+      </c>
       <c r="F193" s="7" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="K193" s="10"/>
     </row>
@@ -5683,33 +6072,35 @@
       <c r="A194" s="7"/>
       <c r="B194" s="19"/>
       <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
+      <c r="E194" s="7">
+        <v>3</v>
+      </c>
       <c r="F194" s="7" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>451</v>
+        <v>405</v>
+      </c>
+      <c r="E195" s="7">
+        <v>1</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>452</v>
+        <v>589</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="H195" s="18" t="s">
         <v>72</v>
@@ -5720,33 +6111,35 @@
       <c r="A196" s="7"/>
       <c r="B196" s="19"/>
       <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
+      <c r="E196" s="7">
+        <v>2</v>
+      </c>
       <c r="F196" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="K196" s="10"/>
     </row>
     <row r="197" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>451</v>
+        <v>409</v>
+      </c>
+      <c r="E197" s="7">
+        <v>1</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>457</v>
+        <v>590</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="H197" s="18" t="s">
         <v>72</v>
@@ -5757,33 +6150,35 @@
       <c r="A198" s="7"/>
       <c r="B198" s="19"/>
       <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
+      <c r="E198" s="7">
+        <v>2</v>
+      </c>
       <c r="F198" s="7" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="K198" s="10"/>
     </row>
     <row r="199" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>451</v>
+        <v>413</v>
+      </c>
+      <c r="E199" s="7">
+        <v>1</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>462</v>
+        <v>591</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="H199" s="18" t="s">
         <v>72</v>
@@ -5794,33 +6189,35 @@
       <c r="A200" s="7"/>
       <c r="B200" s="19"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
+      <c r="E200" s="7">
+        <v>2</v>
+      </c>
       <c r="F200" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>451</v>
+        <v>416</v>
+      </c>
+      <c r="E201" s="7">
+        <v>1</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="H201" s="18" t="s">
         <v>72</v>
@@ -5828,56 +6225,59 @@
       <c r="K201" s="10"/>
     </row>
     <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E202" s="15">
+        <v>2</v>
+      </c>
       <c r="F202" s="7" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>451</v>
+        <v>420</v>
+      </c>
+      <c r="E203" s="7">
+        <v>1</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>471</v>
+        <v>593</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="H203" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>451</v>
+        <v>423</v>
+      </c>
+      <c r="E204" s="7">
+        <v>1</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>475</v>
+        <v>594</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="H204" s="18" t="s">
         <v>72</v>
@@ -5886,94 +6286,94 @@
     </row>
     <row r="205" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>479</v>
+        <v>426</v>
+      </c>
+      <c r="E205" s="7">
+        <v>1</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="H205" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="E206" s="7" t="s">
-        <v>479</v>
+        <v>429</v>
+      </c>
+      <c r="E206" s="7">
+        <v>1</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>484</v>
+        <v>596</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="H206" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>479</v>
+        <v>432</v>
+      </c>
+      <c r="E207" s="7">
+        <v>1</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>488</v>
+        <v>597</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="H207" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>479</v>
+        <v>435</v>
+      </c>
+      <c r="E208" s="7">
+        <v>1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>492</v>
+        <v>598</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="H208" s="18" t="s">
         <v>72</v>
@@ -5982,118 +6382,118 @@
     </row>
     <row r="209" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>479</v>
+        <v>438</v>
+      </c>
+      <c r="E209" s="7">
+        <v>1</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>496</v>
+        <v>599</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
       <c r="H209" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>479</v>
+        <v>441</v>
+      </c>
+      <c r="E210" s="7">
+        <v>1</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="H210" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>479</v>
+        <v>444</v>
+      </c>
+      <c r="E211" s="7">
+        <v>1</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>488</v>
+        <v>601</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="H211" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>479</v>
+        <v>446</v>
+      </c>
+      <c r="E212" s="7">
+        <v>1</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="H212" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>510</v>
+        <v>449</v>
+      </c>
+      <c r="E213" s="7">
+        <v>1</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="H213" s="18" t="s">
         <v>72</v>
@@ -6104,12 +6504,14 @@
       <c r="A214" s="7"/>
       <c r="B214" s="19"/>
       <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
+      <c r="E214" s="7">
+        <v>2</v>
+      </c>
       <c r="F214" s="7" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="K214" s="10"/>
     </row>
@@ -6117,12 +6519,14 @@
       <c r="A215" s="7"/>
       <c r="B215" s="19"/>
       <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
+      <c r="E215" s="7">
+        <v>3</v>
+      </c>
       <c r="F215" s="7" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="K215" s="10"/>
     </row>
@@ -6130,148 +6534,150 @@
       <c r="A216" s="7"/>
       <c r="B216" s="19"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
+      <c r="E216" s="7">
+        <v>4</v>
+      </c>
       <c r="F216" s="7" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>521</v>
+        <v>458</v>
+      </c>
+      <c r="E217" s="7">
+        <v>1</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>522</v>
+        <v>604</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H217" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>521</v>
+        <v>461</v>
+      </c>
+      <c r="E218" s="7">
+        <v>1</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H218" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>529</v>
+        <v>463</v>
+      </c>
+      <c r="E219" s="7">
+        <v>1</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H219" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E220" s="7" t="s">
-        <v>529</v>
+        <v>465</v>
+      </c>
+      <c r="E220" s="7">
+        <v>1</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="H220" s="18"/>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>537</v>
+        <v>469</v>
+      </c>
+      <c r="E221" s="7">
+        <v>1</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="K221" s="10"/>
     </row>
     <row r="222" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="E222" s="7" t="s">
-        <v>541</v>
+        <v>471</v>
+      </c>
+      <c r="E222" s="7">
+        <v>1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H222" s="18" t="s">
         <v>72</v>
@@ -6280,67 +6686,67 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>545</v>
+        <v>473</v>
+      </c>
+      <c r="E223" s="7">
+        <v>1</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H223" s="18" t="s">
         <v>72</v>
       </c>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E224" s="7" t="s">
-        <v>549</v>
+        <v>475</v>
+      </c>
+      <c r="E224" s="7">
+        <v>1</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="K224" s="10"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>551</v>
+        <v>476</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E225" s="7" t="s">
-        <v>553</v>
+        <v>477</v>
+      </c>
+      <c r="E225" s="7">
+        <v>1</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H225" s="18" t="s">
         <v>72</v>
@@ -6349,22 +6755,22 @@
     </row>
     <row r="226" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>557</v>
+        <v>479</v>
+      </c>
+      <c r="E226" s="7">
+        <v>1</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="H226" s="18" t="s">
         <v>72</v>
@@ -6375,9 +6781,11 @@
       <c r="A227" s="7"/>
       <c r="B227" s="19"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
+      <c r="E227" s="7">
+        <v>2</v>
+      </c>
       <c r="F227" s="7" t="s">
-        <v>560</v>
+        <v>481</v>
       </c>
       <c r="G227" s="7" t="s">
         <v>176</v>
@@ -6389,12 +6797,14 @@
       <c r="A228" s="7"/>
       <c r="B228" s="19"/>
       <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
+      <c r="E228" s="7">
+        <v>3</v>
+      </c>
       <c r="F228" s="7" t="s">
-        <v>561</v>
+        <v>482</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>562</v>
+        <v>483</v>
       </c>
       <c r="H228" s="18"/>
       <c r="K228" s="10"/>
@@ -6403,34 +6813,36 @@
       <c r="A229" s="7"/>
       <c r="B229" s="19"/>
       <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
+      <c r="E229" s="7">
+        <v>4</v>
+      </c>
       <c r="F229" s="7" t="s">
-        <v>563</v>
+        <v>484</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>564</v>
+        <v>485</v>
       </c>
       <c r="H229" s="18"/>
       <c r="K229" s="10"/>
     </row>
     <row r="230" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>567</v>
+        <v>487</v>
+      </c>
+      <c r="E230" s="7">
+        <v>1</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="H230" s="18" t="s">
         <v>72</v>
@@ -6441,12 +6853,14 @@
       <c r="A231" s="7"/>
       <c r="B231" s="19"/>
       <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
+      <c r="E231" s="7">
+        <v>2</v>
+      </c>
       <c r="F231" s="7" t="s">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>570</v>
+        <v>489</v>
       </c>
       <c r="H231" s="18"/>
       <c r="K231" s="10"/>
@@ -6454,29 +6868,32 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="19"/>
+      <c r="E232" s="15">
+        <v>3</v>
+      </c>
       <c r="F232" s="7" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
       <c r="B233" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>573</v>
+        <v>491</v>
+      </c>
+      <c r="E233" s="7">
+        <v>1</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="K233" s="10"/>
     </row>
@@ -6484,12 +6901,14 @@
       <c r="A234" s="7"/>
       <c r="B234" s="19"/>
       <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
+      <c r="E234" s="7">
+        <v>2</v>
+      </c>
       <c r="F234" s="7" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="K234" s="10"/>
     </row>
@@ -6497,30 +6916,32 @@
       <c r="A235" s="7"/>
       <c r="B235" s="19"/>
       <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
+      <c r="E235" s="7">
+        <v>3</v>
+      </c>
       <c r="F235" s="7" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>581</v>
+        <v>497</v>
+      </c>
+      <c r="E236" s="7">
+        <v>1</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="K236" s="10"/>
     </row>
@@ -6528,12 +6949,14 @@
       <c r="A237" s="7"/>
       <c r="B237" s="19"/>
       <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
+      <c r="E237" s="7">
+        <v>2</v>
+      </c>
       <c r="F237" s="7" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
       <c r="K237" s="10"/>
     </row>
@@ -6541,12 +6964,14 @@
       <c r="A238" s="7"/>
       <c r="B238" s="19"/>
       <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
+      <c r="E238" s="7">
+        <v>3</v>
+      </c>
       <c r="F238" s="7" t="s">
-        <v>585</v>
+        <v>500</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="K238" s="10"/>
     </row>
@@ -6554,33 +6979,35 @@
       <c r="A239" s="7"/>
       <c r="B239" s="19"/>
       <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
+      <c r="E239" s="7">
+        <v>4</v>
+      </c>
       <c r="F239" s="7" t="s">
-        <v>586</v>
+        <v>501</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>588</v>
+        <v>503</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>590</v>
+        <v>504</v>
+      </c>
+      <c r="E240" s="7">
+        <v>1</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>592</v>
+        <v>505</v>
       </c>
       <c r="K240" s="10"/>
     </row>
@@ -6588,12 +7015,14 @@
       <c r="A241" s="7"/>
       <c r="B241" s="19"/>
       <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
+      <c r="E241" s="7">
+        <v>2</v>
+      </c>
       <c r="F241" s="7" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="K241" s="10"/>
     </row>
@@ -6601,16 +7030,16 @@
       <c r="A242" s="7"/>
       <c r="B242" s="19"/>
       <c r="D242" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>590</v>
+        <v>506</v>
+      </c>
+      <c r="E242" s="7">
+        <v>3</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>595</v>
+        <v>507</v>
       </c>
       <c r="K242" s="10"/>
     </row>
@@ -6618,33 +7047,33 @@
       <c r="A243" s="7"/>
       <c r="B243" s="19"/>
       <c r="D243" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>590</v>
+        <v>508</v>
+      </c>
+      <c r="E243" s="7">
+        <v>4</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>598</v>
+        <v>510</v>
       </c>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="19"/>
       <c r="D244" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="E244" s="7" t="s">
-        <v>590</v>
+        <v>511</v>
+      </c>
+      <c r="E244" s="7">
+        <v>5</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="K244" s="10"/>
     </row>
@@ -6652,14 +7081,16 @@
       <c r="A245" s="7"/>
       <c r="B245" s="19"/>
       <c r="D245" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="E245" s="7"/>
+        <v>513</v>
+      </c>
+      <c r="E245" s="7">
+        <v>6</v>
+      </c>
       <c r="F245" s="7" t="s">
-        <v>603</v>
+        <v>514</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="K245" s="10"/>
     </row>
@@ -6667,16 +7098,16 @@
       <c r="A246" s="7"/>
       <c r="B246" s="19"/>
       <c r="D246" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="E246" s="7" t="s">
-        <v>590</v>
+        <v>516</v>
+      </c>
+      <c r="E246" s="7">
+        <v>7</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="K246" s="10"/>
     </row>
@@ -6684,35 +7115,37 @@
       <c r="A247" s="7"/>
       <c r="B247" s="19"/>
       <c r="D247" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="E247" s="7"/>
+        <v>518</v>
+      </c>
+      <c r="E247" s="7">
+        <v>8</v>
+      </c>
       <c r="F247" s="7" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>613</v>
+        <v>522</v>
+      </c>
+      <c r="E248" s="7">
+        <v>1</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="H248" s="16" t="s">
         <v>72</v>
@@ -6723,12 +7156,14 @@
       <c r="A249" s="7"/>
       <c r="B249" s="19"/>
       <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
+      <c r="E249" s="7">
+        <v>2</v>
+      </c>
       <c r="F249" s="7" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="H249" s="16"/>
       <c r="K249" s="10"/>
@@ -6737,31 +7172,33 @@
       <c r="A250" s="7"/>
       <c r="B250" s="19"/>
       <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
+      <c r="E250" s="7">
+        <v>3</v>
+      </c>
       <c r="F250" s="7" t="s">
-        <v>617</v>
+        <v>526</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="H250" s="16"/>
       <c r="K250" s="10"/>
     </row>
     <row r="251" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>619</v>
+        <v>528</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="E251" s="7" t="s">
-        <v>613</v>
+        <v>529</v>
+      </c>
+      <c r="E251" s="7">
+        <v>1</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H251" s="16" t="s">
         <v>72</v>
@@ -6772,12 +7209,14 @@
       <c r="A252" s="7"/>
       <c r="B252" s="19"/>
       <c r="D252" s="22"/>
-      <c r="E252" s="7"/>
+      <c r="E252" s="7">
+        <v>2</v>
+      </c>
       <c r="F252" s="7" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="H252" s="16"/>
       <c r="K252" s="10"/>
@@ -6786,31 +7225,33 @@
       <c r="A253" s="7"/>
       <c r="B253" s="19"/>
       <c r="D253" s="22"/>
-      <c r="E253" s="7"/>
+      <c r="E253" s="7">
+        <v>3</v>
+      </c>
       <c r="F253" s="7" t="s">
-        <v>622</v>
+        <v>530</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="H253" s="16"/>
       <c r="K253" s="10"/>
     </row>
     <row r="254" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D254" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>613</v>
+        <v>532</v>
+      </c>
+      <c r="E254" s="7">
+        <v>1</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H254" s="16" t="s">
         <v>72</v>
@@ -6821,12 +7262,14 @@
       <c r="A255" s="7"/>
       <c r="B255" s="19"/>
       <c r="D255" s="22"/>
-      <c r="E255" s="7"/>
+      <c r="E255" s="7">
+        <v>2</v>
+      </c>
       <c r="F255" s="7" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="H255" s="16"/>
       <c r="K255" s="10"/>
@@ -6835,12 +7278,14 @@
       <c r="A256" s="7"/>
       <c r="B256" s="19"/>
       <c r="D256" s="22"/>
-      <c r="E256" s="7"/>
+      <c r="E256" s="7">
+        <v>3</v>
+      </c>
       <c r="F256" s="7" t="s">
-        <v>622</v>
+        <v>530</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="H256" s="16"/>
       <c r="K256" s="10"/>
@@ -6849,12 +7294,14 @@
       <c r="A257" s="7"/>
       <c r="B257" s="19"/>
       <c r="D257" s="22"/>
-      <c r="E257" s="7"/>
+      <c r="E257" s="7">
+        <v>4</v>
+      </c>
       <c r="F257" s="7" t="s">
-        <v>626</v>
+        <v>533</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="H257" s="16"/>
       <c r="K257" s="10"/>
@@ -6863,31 +7310,33 @@
       <c r="A258" s="7"/>
       <c r="B258" s="19"/>
       <c r="D258" s="22"/>
-      <c r="E258" s="7"/>
+      <c r="E258" s="7">
+        <v>5</v>
+      </c>
       <c r="F258" s="7" t="s">
-        <v>627</v>
+        <v>534</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>628</v>
+        <v>535</v>
       </c>
       <c r="H258" s="16"/>
       <c r="K258" s="10"/>
     </row>
     <row r="259" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>629</v>
+        <v>536</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="E259" s="7" t="s">
-        <v>613</v>
+        <v>537</v>
+      </c>
+      <c r="E259" s="7">
+        <v>1</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H259" s="16" t="s">
         <v>72</v>
@@ -6898,31 +7347,33 @@
       <c r="A260" s="7"/>
       <c r="B260" s="19"/>
       <c r="D260" s="22"/>
-      <c r="E260" s="7"/>
+      <c r="E260" s="7">
+        <v>2</v>
+      </c>
       <c r="F260" s="7" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="H260" s="16"/>
       <c r="K260" s="10"/>
     </row>
     <row r="261" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>633</v>
+        <v>539</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="E261" s="7" t="s">
-        <v>613</v>
+        <v>540</v>
+      </c>
+      <c r="E261" s="7">
+        <v>1</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="H261" s="18" t="s">
         <v>72</v>
@@ -6933,33 +7384,35 @@
       <c r="A262" s="7"/>
       <c r="B262" s="19"/>
       <c r="D262" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="E262" s="7"/>
+        <v>541</v>
+      </c>
+      <c r="E262" s="7">
+        <v>2</v>
+      </c>
       <c r="F262" s="7" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="H262" s="18"/>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="E263" s="7" t="s">
-        <v>613</v>
+        <v>543</v>
+      </c>
+      <c r="E263" s="7">
+        <v>1</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H263" s="16" t="s">
         <v>72</v>
@@ -6970,14 +7423,16 @@
       <c r="A264" s="7"/>
       <c r="B264" s="19"/>
       <c r="D264" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="E264" s="7"/>
+        <v>541</v>
+      </c>
+      <c r="E264" s="7">
+        <v>2</v>
+      </c>
       <c r="F264" s="7" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="H264" s="16"/>
       <c r="K264" s="10"/>
@@ -6986,14 +7441,16 @@
       <c r="A265" s="7"/>
       <c r="B265" s="19"/>
       <c r="D265" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="E265" s="7"/>
+        <v>544</v>
+      </c>
+      <c r="E265" s="7">
+        <v>3</v>
+      </c>
       <c r="F265" s="7" t="s">
-        <v>641</v>
+        <v>545</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H265" s="16"/>
       <c r="K265" s="10"/>
@@ -7002,85 +7459,55 @@
       <c r="A266" s="7"/>
       <c r="B266" s="19"/>
       <c r="D266" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="E266" s="7"/>
+        <v>546</v>
+      </c>
+      <c r="E266" s="7">
+        <v>4</v>
+      </c>
       <c r="F266" s="7" t="s">
-        <v>643</v>
+        <v>547</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="H266" s="16"/>
       <c r="K266" s="10"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B267" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>646</v>
-      </c>
+      <c r="A267" s="7"/>
+      <c r="B267" s="19"/>
+      <c r="D267" s="22"/>
       <c r="K267" s="10"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="B268" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>648</v>
-      </c>
+      <c r="A268" s="7"/>
+      <c r="B268" s="19"/>
+      <c r="D268" s="22"/>
       <c r="K268" s="10"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A269" s="7"/>
+      <c r="B269" s="19"/>
       <c r="K269" s="10"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B270" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A270" s="7"/>
+      <c r="B270" s="19"/>
       <c r="K270" s="10"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="B271" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A271" s="7"/>
+      <c r="B271" s="19"/>
       <c r="K271" s="10"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B272" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A272" s="7"/>
+      <c r="B272" s="19"/>
       <c r="K272" s="10"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B273" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A273" s="7"/>
+      <c r="B273" s="19"/>
       <c r="K273" s="10"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
